--- a/data/contatos.xlsx
+++ b/data/contatos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manin\OneDrive\Área de Trabalho\whatsapp_project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manin\Downloads\whatsapp_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F321A3-9B54-474C-AEC4-655D5C8655BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1150038F-8EC6-46AD-80C5-2E1413031525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5266B322-2407-4A6D-8182-8ECAD3C2AEF1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5266B322-2407-4A6D-8182-8ECAD3C2AEF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>wesley</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Nome</t>
   </si>
@@ -47,7 +44,7 @@
     <t>Telefone</t>
   </si>
   <si>
-    <t>brenda</t>
+    <t>Cesar</t>
   </si>
 </sst>
 </file>
@@ -88,7 +85,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,41 +422,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED4D8B4-88D2-433A-B073-1FEDF1E02092}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>5555991754295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>5538992234076</v>
+        <v>554691125255</v>
       </c>
     </row>
   </sheetData>

--- a/data/contatos.xlsx
+++ b/data/contatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manin\Downloads\whatsapp_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1150038F-8EC6-46AD-80C5-2E1413031525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239397A9-493C-4F21-86B7-B8153D2BD2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5266B322-2407-4A6D-8182-8ECAD3C2AEF1}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{5266B322-2407-4A6D-8182-8ECAD3C2AEF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Nome</t>
   </si>
   <si>
     <t>Telefone</t>
-  </si>
-  <si>
-    <t>Cesar</t>
   </si>
 </sst>
 </file>
@@ -80,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -88,6 +85,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED4D8B4-88D2-433A-B073-1FEDF1E02092}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="A2:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,12 +443,58 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>554691125255</v>
-      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
